--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Model</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>New Price</t>
+  </si>
+  <si>
+    <t>New Varrient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo 50(6GB+128GB)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -508,53 +514,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -987,20 +996,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1243,10 +1252,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,26 +1265,26 @@
     <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1289,11 +1298,11 @@
       <c r="D3" s="14">
         <v>9990</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="24">
         <f>D3+D3*5%</f>
         <v>10489.5</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -1305,11 +1314,11 @@
       <c r="D4" s="14">
         <v>11990</v>
       </c>
-      <c r="E4" s="34">
-        <f t="shared" ref="E4:E20" si="0">D4+D4*5%</f>
+      <c r="E4" s="24">
+        <f t="shared" ref="E4:E21" si="0">D4+D4*5%</f>
         <v>12589.5</v>
       </c>
-      <c r="F4" s="39"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1321,11 +1330,11 @@
       <c r="D5" s="14">
         <v>8990</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="24">
         <f t="shared" si="0"/>
         <v>9439.5</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
@@ -1337,11 +1346,11 @@
       <c r="D6" s="14">
         <v>11490</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="24">
         <f t="shared" si="0"/>
         <v>12064.5</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
@@ -1353,11 +1362,11 @@
       <c r="D7" s="14">
         <v>12790</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="24">
         <f t="shared" si="0"/>
         <v>13429.5</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -1369,63 +1378,63 @@
       <c r="D8" s="14">
         <v>13690</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="24">
         <f t="shared" si="0"/>
         <v>14374.5</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="15">
         <v>15630</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="14">
         <v>16490</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="24">
         <f t="shared" si="0"/>
         <v>17314.5</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="15">
         <v>13190</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="14">
         <v>13990</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="15">
         <v>16590</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="14">
         <v>17490</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
         <v>18364.5</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1439,11 +1448,11 @@
       <c r="D12" s="14">
         <v>22990</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
         <v>24139.5</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -1455,11 +1464,11 @@
       <c r="D13" s="14">
         <v>24990</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>26239.5</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -1471,11 +1480,11 @@
       <c r="D14" s="14">
         <v>26990</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>28339.5</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -1487,11 +1496,11 @@
       <c r="D15" s="14">
         <v>17490</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="24">
         <f t="shared" si="0"/>
         <v>18364.5</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
@@ -1503,11 +1512,11 @@
       <c r="D16" s="14">
         <v>21490</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>22564.5</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
@@ -1519,67 +1528,85 @@
       <c r="D17" s="14">
         <v>11990</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>12589.5</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="15">
         <v>17619</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="14">
         <v>18499</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>19423.95</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="38">
+        <v>20899</v>
+      </c>
+      <c r="D19" s="39">
+        <v>21990</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" ref="E19" si="1">D19+D19*5%</f>
+        <v>23089.5</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C20" s="15">
         <v>34490</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D20" s="14">
         <v>36990</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E20" s="24">
         <f t="shared" si="0"/>
         <v>38839.5</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+    <row r="21" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C21" s="33">
         <v>39990</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D21" s="34">
         <v>42990</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E21" s="35">
         <f t="shared" si="0"/>
         <v>45139.5</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F21" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0" footer="0"/>

--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -134,9 +134,6 @@
     <t xml:space="preserve"> C20A (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Narzo 50i (4GB+64GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C21 Y (3GB+32GB)</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve"> C31 (4GB+64GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Narzo 50(4GB+64GB)</t>
   </si>
   <si>
     <t xml:space="preserve"> GT Master (8+128GB)</t>
@@ -209,7 +203,25 @@
     <t>New Varrient</t>
   </si>
   <si>
-    <t xml:space="preserve"> Narzo 50(6GB+128GB)</t>
+    <t xml:space="preserve"> C35 (6GB+128GB)</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50 (6GB+128GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50i (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50A Prime                  (4GB+128GB)</t>
+  </si>
+  <si>
+    <t>RRP (TK.)</t>
   </si>
 </sst>
 </file>
@@ -284,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -451,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -527,44 +545,65 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,20 +1035,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1252,10 +1291,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1304,7 @@
     <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1279,10 +1318,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>28</v>
@@ -1315,7 +1354,7 @@
         <v>11990</v>
       </c>
       <c r="E4" s="24">
-        <f t="shared" ref="E4:E21" si="0">D4+D4*5%</f>
+        <f t="shared" ref="E4:E23" si="0">D4+D4*5%</f>
         <v>12589.5</v>
       </c>
       <c r="F4" s="28"/>
@@ -1338,7 +1377,7 @@
     </row>
     <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15">
         <v>10780</v>
@@ -1354,7 +1393,7 @@
     </row>
     <row r="7" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="15">
         <v>11950</v>
@@ -1370,7 +1409,7 @@
     </row>
     <row r="8" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="15">
         <v>12980</v>
@@ -1386,7 +1425,7 @@
     </row>
     <row r="9" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="15">
         <v>15630</v>
@@ -1398,13 +1437,13 @@
         <f t="shared" si="0"/>
         <v>17314.5</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>49</v>
+      <c r="F9" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="15">
         <v>13190</v>
@@ -1416,13 +1455,13 @@
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>49</v>
+      <c r="F10" s="29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="15">
         <v>16590</v>
@@ -1434,179 +1473,215 @@
         <f t="shared" si="0"/>
         <v>18364.5</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="C12" s="36">
+        <v>17990</v>
+      </c>
+      <c r="D12" s="37">
+        <v>18990</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" ref="E12" si="1">D12+D12*5%</f>
+        <v>19939.5</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15">
         <v>21500</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>22990</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
         <v>24139.5</v>
       </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="15">
         <v>23340</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>24990</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E14" s="24">
         <f t="shared" si="0"/>
         <v>26239.5</v>
       </c>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15">
         <v>25190</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>26990</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E15" s="24">
         <f t="shared" si="0"/>
         <v>28339.5</v>
       </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="15">
         <v>16340</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <v>17490</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E16" s="24">
         <f t="shared" si="0"/>
         <v>18364.5</v>
       </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="15">
         <v>20040</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>21490</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E17" s="24">
         <f t="shared" si="0"/>
         <v>22564.5</v>
       </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="15">
         <v>11390</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <v>11990</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
         <v>12589.5</v>
       </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="15">
         <v>17619</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <v>18499</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="24">
         <f t="shared" si="0"/>
         <v>19423.95</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
+      <c r="F19" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C20" s="43">
         <v>20899</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D20" s="44">
         <v>21990</v>
       </c>
-      <c r="E19" s="40">
-        <f t="shared" ref="E19" si="1">D19+D19*5%</f>
+      <c r="E20" s="45">
+        <f t="shared" ref="E20:E21" si="2">D20+D20*5%</f>
         <v>23089.5</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F20" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="36">
+        <v>16199</v>
+      </c>
+      <c r="D21" s="37">
+        <v>16999</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="2"/>
+        <v>17848.95</v>
+      </c>
+      <c r="F21" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="15">
+    <row r="22" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15">
         <v>34490</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D22" s="14">
         <v>36990</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E22" s="24">
         <f t="shared" si="0"/>
         <v>38839.5</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="33">
+      <c r="F22" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="31">
         <v>39990</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D23" s="32">
         <v>42990</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E23" s="33">
         <f t="shared" si="0"/>
         <v>45139.5</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F23" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0" footer="0"/>

--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Model</t>
   </si>
@@ -134,15 +134,6 @@
     <t xml:space="preserve"> C20A (2GB+32GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> C21 Y (3GB+32GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C21 Y (4GB+64GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C25 Y (4GB+64GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C25s (4GB+128GB)</t>
   </si>
   <si>
@@ -168,12 +159,54 @@
   </si>
   <si>
     <t xml:space="preserve"> C35 (4GB+128GB)</t>
+  </si>
+  <si>
+    <t>Realme Price List (Last Update 15-06-2022)</t>
+  </si>
+  <si>
+    <t>New Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C35 (6GB+128GB)</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50 (6GB+128GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50i (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>RRP (TK.)</t>
+  </si>
+  <si>
+    <t>9Pro (8GB+128GB)</t>
+  </si>
+  <si>
+    <t>9pro+ (8GB+128GB)</t>
+  </si>
+  <si>
+    <t>New Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C25Y (4GB+64GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C21Y (3GB+32GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C21Y (4GB+64GB)</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="17"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -182,7 +215,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="17"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -191,44 +224,17 @@
     </r>
   </si>
   <si>
-    <t>Realme Price List (Last Update 15-06-2022)</t>
-  </si>
-  <si>
-    <t>(+) 5% Vat of MRP</t>
-  </si>
-  <si>
-    <t>New Price</t>
-  </si>
-  <si>
-    <t>New Varrient</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C35 (6GB+128GB)</t>
-  </si>
-  <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Narzo50 (6GB+128GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Narzo50 (4GB+64GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Narzo50i (4GB+64GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Narzo50A Prime                  (4GB+128GB)</t>
-  </si>
-  <si>
-    <t>RRP (TK.)</t>
+    <t>Realme Update Price List (20.07.2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narzo50A Prime (4GB+128GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,23 +283,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="17"/>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -317,12 +338,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -465,11 +486,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -502,15 +585,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -532,78 +606,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,14 +778,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>319118</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1028,33 +1123,33 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1068,7 +1163,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4">
         <v>8990</v>
@@ -1078,7 +1173,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4">
         <v>10990</v>
@@ -1088,7 +1183,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10">
@@ -1102,7 +1197,7 @@
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="10">
@@ -1116,7 +1211,7 @@
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="12">
         <v>10320</v>
       </c>
@@ -1131,7 +1226,7 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10">
@@ -1148,7 +1243,7 @@
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12">
@@ -1162,7 +1257,7 @@
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="12">
@@ -1176,7 +1271,7 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10">
@@ -1190,7 +1285,7 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10">
@@ -1202,13 +1297,13 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
     </row>
@@ -1216,7 +1311,7 @@
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="12">
@@ -1233,7 +1328,7 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="10">
@@ -1250,7 +1345,7 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="10">
@@ -1262,13 +1357,13 @@
     </row>
     <row r="19" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="G20" s="6"/>
@@ -1291,401 +1386,348 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F24"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="40.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="27">
+        <v>9470</v>
+      </c>
+      <c r="D4" s="28">
+        <v>9990</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="27">
+        <v>11310</v>
+      </c>
+      <c r="D5" s="28">
+        <v>11990</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="27">
+        <v>8490</v>
+      </c>
+      <c r="D6" s="28">
+        <v>8990</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="27">
+        <v>10780</v>
+      </c>
+      <c r="D7" s="28">
+        <v>11490</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="27">
+        <v>11950</v>
+      </c>
+      <c r="D8" s="28">
+        <v>12790</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="31">
+        <v>13290</v>
+      </c>
+      <c r="D9" s="32">
+        <v>13990</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="27">
+        <v>15630</v>
+      </c>
+      <c r="D10" s="28">
+        <v>16490</v>
+      </c>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="31">
+        <v>13670</v>
+      </c>
+      <c r="D11" s="32">
+        <v>14490</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="27">
+        <v>16590</v>
+      </c>
+      <c r="D12" s="28">
+        <v>17490</v>
+      </c>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="27">
+        <v>17990</v>
+      </c>
+      <c r="D13" s="28">
+        <v>18990</v>
+      </c>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="27">
+        <v>21500</v>
+      </c>
+      <c r="D14" s="28">
+        <v>22990</v>
+      </c>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="27">
+        <v>23340</v>
+      </c>
+      <c r="D15" s="28">
+        <v>24990</v>
+      </c>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="C16" s="27">
+        <v>25190</v>
+      </c>
+      <c r="D16" s="28">
+        <v>26990</v>
+      </c>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="27">
+        <v>16340</v>
+      </c>
+      <c r="D17" s="28">
+        <v>17490</v>
+      </c>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="31">
+        <v>20585</v>
+      </c>
+      <c r="D18" s="32">
+        <v>21990</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="35">
+        <v>29790</v>
+      </c>
+      <c r="D19" s="36">
+        <v>31990</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="35">
+        <v>37190</v>
+      </c>
+      <c r="D20" s="36">
+        <v>39990</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="27">
+        <v>11390</v>
+      </c>
+      <c r="D21" s="28">
+        <v>11990</v>
+      </c>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="15">
-        <v>9470</v>
-      </c>
-      <c r="D3" s="14">
-        <v>9990</v>
-      </c>
-      <c r="E3" s="24">
-        <f>D3+D3*5%</f>
-        <v>10489.5</v>
-      </c>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="15">
-        <v>11310</v>
-      </c>
-      <c r="D4" s="14">
-        <v>11990</v>
-      </c>
-      <c r="E4" s="24">
-        <f t="shared" ref="E4:E23" si="0">D4+D4*5%</f>
-        <v>12589.5</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="15">
-        <v>8490</v>
-      </c>
-      <c r="D5" s="14">
-        <v>8990</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" si="0"/>
-        <v>9439.5</v>
-      </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="15">
-        <v>10780</v>
-      </c>
-      <c r="D6" s="14">
-        <v>11490</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="0"/>
-        <v>12064.5</v>
-      </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="15">
-        <v>11950</v>
-      </c>
-      <c r="D7" s="14">
-        <v>12790</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="0"/>
-        <v>13429.5</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="15">
-        <v>12980</v>
-      </c>
-      <c r="D8" s="14">
-        <v>13690</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="0"/>
-        <v>14374.5</v>
-      </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15">
-        <v>15630</v>
-      </c>
-      <c r="D9" s="14">
-        <v>16490</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" si="0"/>
-        <v>17314.5</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15">
-        <v>13190</v>
-      </c>
-      <c r="D10" s="14">
-        <v>13990</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="0"/>
-        <v>14689.5</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="15">
-        <v>16590</v>
-      </c>
-      <c r="D11" s="14">
-        <v>17490</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="0"/>
-        <v>18364.5</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="36">
-        <v>17990</v>
-      </c>
-      <c r="D12" s="37">
-        <v>18990</v>
-      </c>
-      <c r="E12" s="38">
-        <f t="shared" ref="E12" si="1">D12+D12*5%</f>
-        <v>19939.5</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15">
-        <v>21500</v>
-      </c>
-      <c r="D13" s="14">
-        <v>22990</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="0"/>
-        <v>24139.5</v>
-      </c>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="15">
-        <v>23340</v>
-      </c>
-      <c r="D14" s="14">
-        <v>24990</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="0"/>
-        <v>26239.5</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="C22" s="27">
+        <v>17619</v>
+      </c>
+      <c r="D22" s="28">
+        <v>18499</v>
+      </c>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="27">
+        <v>20899</v>
+      </c>
+      <c r="D23" s="28">
+        <v>21990</v>
+      </c>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="38">
+        <v>16199</v>
+      </c>
+      <c r="D24" s="39">
+        <v>16999</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="15">
-        <v>25190</v>
-      </c>
-      <c r="D15" s="14">
-        <v>26990</v>
-      </c>
-      <c r="E15" s="24">
-        <f t="shared" si="0"/>
-        <v>28339.5</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+    </row>
+    <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="15">
-        <v>16340</v>
-      </c>
-      <c r="D16" s="14">
-        <v>17490</v>
-      </c>
-      <c r="E16" s="24">
-        <f t="shared" si="0"/>
-        <v>18364.5</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="C25" s="27">
+        <v>34490</v>
+      </c>
+      <c r="D25" s="28">
+        <v>36990</v>
+      </c>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="15">
-        <v>20040</v>
-      </c>
-      <c r="D17" s="14">
-        <v>21490</v>
-      </c>
-      <c r="E17" s="24">
-        <f t="shared" si="0"/>
-        <v>22564.5</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="15">
-        <v>11390</v>
-      </c>
-      <c r="D18" s="14">
-        <v>11990</v>
-      </c>
-      <c r="E18" s="24">
-        <f t="shared" si="0"/>
-        <v>12589.5</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="15">
-        <v>17619</v>
-      </c>
-      <c r="D19" s="14">
-        <v>18499</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" si="0"/>
-        <v>19423.95</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="43">
-        <v>20899</v>
-      </c>
-      <c r="D20" s="44">
-        <v>21990</v>
-      </c>
-      <c r="E20" s="45">
-        <f t="shared" ref="E20:E21" si="2">D20+D20*5%</f>
-        <v>23089.5</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="36">
-        <v>16199</v>
-      </c>
-      <c r="D21" s="37">
-        <v>16999</v>
-      </c>
-      <c r="E21" s="38">
-        <f t="shared" si="2"/>
-        <v>17848.95</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="15">
-        <v>34490</v>
-      </c>
-      <c r="D22" s="14">
-        <v>36990</v>
-      </c>
-      <c r="E22" s="24">
-        <f t="shared" si="0"/>
-        <v>38839.5</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="C26" s="42">
         <v>39990</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D26" s="43">
         <v>42990</v>
       </c>
-      <c r="E23" s="33">
-        <f t="shared" si="0"/>
-        <v>45139.5</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="81" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -606,12 +606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -676,29 +670,35 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,20 +1130,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1389,7 +1389,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,320 +1404,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>9470</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>9990</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>11310</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>11990</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>8490</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>8990</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>10780</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>11490</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>11950</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>12790</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>13290</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>13990</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>15630</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>16490</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>13670</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>14490</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>16590</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>17490</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>17990</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>18990</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <v>21500</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>22990</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>23340</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <v>24990</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="25">
         <v>25190</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <v>26990</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>16340</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <v>17490</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="29">
         <v>20585</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="30">
         <v>21990</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>29790</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>31990</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>37190</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>39990</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="25">
         <v>11390</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <v>11990</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="25">
         <v>17619</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="26">
         <v>18499</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>20899</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <v>21990</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="36">
         <v>16199</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="37">
         <v>16999</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="25">
         <v>34490</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="26">
         <v>36990</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="40">
         <v>39990</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="41">
         <v>42990</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -224,10 +224,13 @@
     </r>
   </si>
   <si>
-    <t>Realme Update Price List (20.07.2022)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Narzo50A Prime (4GB+128GB)</t>
+  </si>
+  <si>
+    <t>With 5% Vat MRP</t>
+  </si>
+  <si>
+    <t>Realme Update Price List (24.07.2022)</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -548,11 +551,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -699,6 +741,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,13 +835,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>109568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1386,10 +1443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E27"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,333 +1454,431 @@
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="25">
+        <v>9470</v>
+      </c>
+      <c r="D5" s="26">
+        <v>9990</v>
+      </c>
+      <c r="E5" s="54">
+        <f>D5+D5*5%</f>
+        <v>10489.5</v>
+      </c>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="25">
+        <v>11310</v>
+      </c>
+      <c r="D6" s="26">
+        <v>11990</v>
+      </c>
+      <c r="E6" s="54">
+        <f t="shared" ref="E6:E27" si="0">D6+D6*5%</f>
+        <v>12589.5</v>
+      </c>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="25">
+        <v>8490</v>
+      </c>
+      <c r="D7" s="26">
+        <v>8990</v>
+      </c>
+      <c r="E7" s="54">
+        <f t="shared" si="0"/>
+        <v>9439.5</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="25">
+        <v>10780</v>
+      </c>
+      <c r="D8" s="26">
+        <v>11490</v>
+      </c>
+      <c r="E8" s="54">
+        <f t="shared" si="0"/>
+        <v>12064.5</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="25">
+        <v>11950</v>
+      </c>
+      <c r="D9" s="26">
+        <v>12790</v>
+      </c>
+      <c r="E9" s="54">
+        <f t="shared" si="0"/>
+        <v>13429.5</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="29">
+        <v>13290</v>
+      </c>
+      <c r="D10" s="30">
+        <v>13990</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" si="0"/>
+        <v>14689.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="25">
+        <v>15630</v>
+      </c>
+      <c r="D11" s="26">
+        <v>16490</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" si="0"/>
+        <v>17314.5</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="29">
+        <v>13670</v>
+      </c>
+      <c r="D12" s="30">
+        <v>14490</v>
+      </c>
+      <c r="E12" s="55">
+        <f t="shared" si="0"/>
+        <v>15214.5</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="25">
+        <v>16590</v>
+      </c>
+      <c r="D13" s="26">
+        <v>17490</v>
+      </c>
+      <c r="E13" s="54">
+        <f t="shared" si="0"/>
+        <v>18364.5</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="25">
+        <v>17990</v>
+      </c>
+      <c r="D14" s="26">
+        <v>18990</v>
+      </c>
+      <c r="E14" s="54">
+        <f t="shared" si="0"/>
+        <v>19939.5</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="25">
+        <v>21500</v>
+      </c>
+      <c r="D15" s="26">
+        <v>22990</v>
+      </c>
+      <c r="E15" s="54">
+        <f t="shared" si="0"/>
+        <v>24139.5</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="25">
+        <v>23340</v>
+      </c>
+      <c r="D16" s="26">
+        <v>24990</v>
+      </c>
+      <c r="E16" s="54">
+        <f t="shared" si="0"/>
+        <v>26239.5</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="25">
+        <v>25190</v>
+      </c>
+      <c r="D17" s="26">
+        <v>26990</v>
+      </c>
+      <c r="E17" s="54">
+        <f t="shared" si="0"/>
+        <v>28339.5</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="25">
+        <v>16340</v>
+      </c>
+      <c r="D18" s="26">
+        <v>17490</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" si="0"/>
+        <v>18364.5</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="29">
+        <v>20585</v>
+      </c>
+      <c r="D19" s="30">
+        <v>21990</v>
+      </c>
+      <c r="E19" s="55">
+        <f t="shared" si="0"/>
+        <v>23089.5</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="33">
+        <v>29790</v>
+      </c>
+      <c r="D20" s="34">
+        <v>31990</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="0"/>
+        <v>33589.5</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="33">
+        <v>37190</v>
+      </c>
+      <c r="D21" s="34">
+        <v>39990</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="0"/>
+        <v>41989.5</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="25">
+        <v>11390</v>
+      </c>
+      <c r="D22" s="26">
+        <v>11990</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" si="0"/>
+        <v>12589.5</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="25">
+        <v>17619</v>
+      </c>
+      <c r="D23" s="26">
+        <v>18499</v>
+      </c>
+      <c r="E23" s="54">
+        <f t="shared" si="0"/>
+        <v>19423.95</v>
+      </c>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="25">
+        <v>20899</v>
+      </c>
+      <c r="D24" s="26">
+        <v>21990</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" si="0"/>
+        <v>23089.5</v>
+      </c>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-    </row>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="25">
-        <v>9470</v>
-      </c>
-      <c r="D4" s="26">
-        <v>9990</v>
-      </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="25">
-        <v>11310</v>
-      </c>
-      <c r="D5" s="26">
-        <v>11990</v>
-      </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="25">
-        <v>8490</v>
-      </c>
-      <c r="D6" s="26">
-        <v>8990</v>
-      </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25">
-        <v>10780</v>
-      </c>
-      <c r="D7" s="26">
-        <v>11490</v>
-      </c>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25">
-        <v>11950</v>
-      </c>
-      <c r="D8" s="26">
-        <v>12790</v>
-      </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="29">
-        <v>13290</v>
-      </c>
-      <c r="D9" s="30">
-        <v>13990</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25">
-        <v>15630</v>
-      </c>
-      <c r="D10" s="26">
-        <v>16490</v>
-      </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="29">
-        <v>13670</v>
-      </c>
-      <c r="D11" s="30">
-        <v>14490</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="25">
-        <v>16590</v>
-      </c>
-      <c r="D12" s="26">
-        <v>17490</v>
-      </c>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="25">
-        <v>17990</v>
-      </c>
-      <c r="D13" s="26">
-        <v>18990</v>
-      </c>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="25">
-        <v>21500</v>
-      </c>
-      <c r="D14" s="26">
-        <v>22990</v>
-      </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="25">
-        <v>23340</v>
-      </c>
-      <c r="D15" s="26">
-        <v>24990</v>
-      </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25">
-        <v>25190</v>
-      </c>
-      <c r="D16" s="26">
-        <v>26990</v>
-      </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="25">
-        <v>16340</v>
-      </c>
-      <c r="D17" s="26">
-        <v>17490</v>
-      </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="29">
-        <v>20585</v>
-      </c>
-      <c r="D18" s="30">
-        <v>21990</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="33">
-        <v>29790</v>
-      </c>
-      <c r="D19" s="34">
-        <v>31990</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="33">
-        <v>37190</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="C25" s="36">
+        <v>16199</v>
+      </c>
+      <c r="D25" s="37">
+        <v>16999</v>
+      </c>
+      <c r="E25" s="54">
+        <f t="shared" si="0"/>
+        <v>17848.95</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="25">
+        <v>34490</v>
+      </c>
+      <c r="D26" s="26">
+        <v>36990</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" si="0"/>
+        <v>38839.5</v>
+      </c>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="2:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="40">
         <v>39990</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="25">
-        <v>11390</v>
-      </c>
-      <c r="D21" s="26">
-        <v>11990</v>
-      </c>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="25">
-        <v>17619</v>
-      </c>
-      <c r="D22" s="26">
-        <v>18499</v>
-      </c>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="25">
-        <v>20899</v>
-      </c>
-      <c r="D23" s="26">
-        <v>21990</v>
-      </c>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="36">
-        <v>16199</v>
-      </c>
-      <c r="D24" s="37">
-        <v>16999</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="25">
-        <v>34490</v>
-      </c>
-      <c r="D25" s="26">
-        <v>36990</v>
-      </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="2:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="40">
-        <v>39990</v>
-      </c>
-      <c r="D26" s="41">
+      <c r="D27" s="41">
         <v>42990</v>
       </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E27" s="57">
+        <f t="shared" si="0"/>
+        <v>45139.5</v>
+      </c>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0" footer="0"/>

--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -170,9 +170,6 @@
     <t xml:space="preserve"> C35 (6GB+128GB)</t>
   </si>
   <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Narzo50 (6GB+128GB)</t>
   </si>
   <si>
@@ -224,13 +221,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Narzo50A Prime (4GB+128GB)</t>
-  </si>
-  <si>
     <t>With 5% Vat MRP</t>
   </si>
   <si>
-    <t>Realme Update Price List (24.07.2022)</t>
+    <t>Realme Update Price List (26.07.2022)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,12 +333,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -594,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -679,27 +667,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -715,7 +682,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,19 +718,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1187,20 +1154,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1443,18 +1410,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F28"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -1462,20 +1430,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1485,32 +1453,34 @@
         <v>22</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="25">
-        <v>9470</v>
-      </c>
-      <c r="D5" s="26">
-        <v>9990</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="C5" s="29">
+        <v>10490</v>
+      </c>
+      <c r="D5" s="30">
+        <v>10990</v>
+      </c>
+      <c r="E5" s="39">
         <f>D5+D5*5%</f>
-        <v>10489.5</v>
-      </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11539.5</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>30</v>
       </c>
@@ -1520,13 +1490,13 @@
       <c r="D6" s="26">
         <v>11990</v>
       </c>
-      <c r="E6" s="54">
-        <f t="shared" ref="E6:E27" si="0">D6+D6*5%</f>
+      <c r="E6" s="38">
+        <f t="shared" ref="E6:E26" si="0">D6+D6*5%</f>
         <v>12589.5</v>
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>31</v>
       </c>
@@ -1536,63 +1506,67 @@
       <c r="D7" s="26">
         <v>8990</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="38">
         <f t="shared" si="0"/>
         <v>9439.5</v>
       </c>
       <c r="F7" s="27"/>
     </row>
-    <row r="8" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="29">
+        <v>12370</v>
+      </c>
+      <c r="D8" s="30">
+        <v>12990</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>13639.5</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="25">
-        <v>10780</v>
-      </c>
-      <c r="D8" s="26">
-        <v>11490</v>
-      </c>
-      <c r="E8" s="54">
-        <f t="shared" si="0"/>
-        <v>12064.5</v>
-      </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25">
-        <v>11950</v>
-      </c>
-      <c r="D9" s="26">
-        <v>12790</v>
-      </c>
-      <c r="E9" s="54">
-        <f t="shared" si="0"/>
-        <v>13429.5</v>
-      </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="C9" s="29">
+        <v>13320</v>
+      </c>
+      <c r="D9" s="30">
+        <v>13990</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>14689.5</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="25">
         <v>13290</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <v>13990</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>32</v>
       </c>
@@ -1602,31 +1576,31 @@
       <c r="D11" s="26">
         <v>16490</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
         <v>17314.5</v>
       </c>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <v>13670</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="26">
         <v>14490</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="49">
         <f t="shared" si="0"/>
         <v>15214.5</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>40</v>
       </c>
@@ -1636,13 +1610,13 @@
       <c r="D13" s="26">
         <v>17490</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="38">
         <f t="shared" si="0"/>
         <v>18364.5</v>
       </c>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>43</v>
       </c>
@@ -1652,13 +1626,13 @@
       <c r="D14" s="26">
         <v>18990</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="38">
         <f t="shared" si="0"/>
         <v>19939.5</v>
       </c>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="24" t="s">
         <v>33</v>
       </c>
@@ -1668,13 +1642,13 @@
       <c r="D15" s="26">
         <v>22990</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="38">
         <f t="shared" si="0"/>
         <v>24139.5</v>
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="24" t="s">
         <v>34</v>
       </c>
@@ -1684,15 +1658,15 @@
       <c r="D16" s="26">
         <v>24990</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="38">
         <f t="shared" si="0"/>
         <v>26239.5</v>
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="25">
         <v>25190</v>
@@ -1700,13 +1674,13 @@
       <c r="D17" s="26">
         <v>26990</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="38">
         <f t="shared" si="0"/>
         <v>28339.5</v>
       </c>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>35</v>
       </c>
@@ -1716,69 +1690,69 @@
       <c r="D18" s="26">
         <v>17490</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="38">
         <f t="shared" si="0"/>
         <v>18364.5</v>
       </c>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="25">
         <v>20585</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="26">
         <v>21990</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="49">
         <f t="shared" si="0"/>
         <v>23089.5</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="25">
+        <v>29790</v>
+      </c>
+      <c r="D20" s="26">
+        <v>31990</v>
+      </c>
+      <c r="E20" s="49">
+        <f t="shared" si="0"/>
+        <v>33589.5</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="33">
-        <v>29790</v>
-      </c>
-      <c r="D20" s="34">
-        <v>31990</v>
-      </c>
-      <c r="E20" s="56">
-        <f t="shared" si="0"/>
-        <v>33589.5</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="C21" s="25">
+        <v>37190</v>
+      </c>
+      <c r="D21" s="26">
+        <v>39990</v>
+      </c>
+      <c r="E21" s="49">
+        <f t="shared" si="0"/>
+        <v>41989.5</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="33">
-        <v>37190</v>
-      </c>
-      <c r="D21" s="34">
-        <v>39990</v>
-      </c>
-      <c r="E21" s="56">
-        <f t="shared" si="0"/>
-        <v>41989.5</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="25">
         <v>11390</v>
@@ -1786,15 +1760,15 @@
       <c r="D22" s="26">
         <v>11990</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="38">
         <f t="shared" si="0"/>
         <v>12589.5</v>
       </c>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="25">
         <v>17619</v>
@@ -1802,15 +1776,15 @@
       <c r="D23" s="26">
         <v>18499</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="38">
         <f t="shared" si="0"/>
         <v>19423.95</v>
       </c>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="25">
         <v>20899</v>
@@ -1818,63 +1792,45 @@
       <c r="D24" s="26">
         <v>21990</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="38">
         <f t="shared" si="0"/>
         <v>23089.5</v>
       </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="36">
-        <v>16199</v>
-      </c>
-      <c r="D25" s="37">
-        <v>16999</v>
-      </c>
-      <c r="E25" s="54">
-        <f t="shared" si="0"/>
-        <v>17848.95</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+    <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C25" s="25">
         <v>34490</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25" s="26">
         <v>36990</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E25" s="38">
         <f t="shared" si="0"/>
         <v>38839.5</v>
       </c>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="2:6" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C26" s="33">
         <v>39990</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D26" s="34">
         <v>42990</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E26" s="40">
         <f t="shared" si="0"/>
         <v>45139.5</v>
       </c>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>

--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -694,6 +694,12 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,12 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,20 +1154,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1413,7 +1413,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,20 +1430,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1558,11 +1558,11 @@
       <c r="D10" s="26">
         <v>13990</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1592,11 +1592,11 @@
       <c r="D12" s="26">
         <v>14490</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="41">
         <f t="shared" si="0"/>
         <v>15214.5</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1706,11 +1706,11 @@
       <c r="D19" s="26">
         <v>21990</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="41">
         <f t="shared" si="0"/>
         <v>23089.5</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1724,11 +1724,11 @@
       <c r="D20" s="26">
         <v>31990</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="41">
         <f t="shared" si="0"/>
         <v>33589.5</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="42" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1742,11 +1742,11 @@
       <c r="D21" s="26">
         <v>39990</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="41">
         <f t="shared" si="0"/>
         <v>41989.5</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="42" t="s">
         <v>50</v>
       </c>
     </row>

--- a/2022/Price List/Realme Price List 04.07.2022.xlsx
+++ b/2022/Price List/Realme Price List 04.07.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -188,9 +188,6 @@
     <t>9pro+ (8GB+128GB)</t>
   </si>
   <si>
-    <t>New Model</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C25Y (4GB+64GB)</t>
   </si>
   <si>
@@ -224,7 +221,10 @@
     <t>With 5% Vat MRP</t>
   </si>
   <si>
-    <t>Realme Update Price List (26.07.2022)</t>
+    <t>Narzo50A Prime(4GB+128GB)</t>
+  </si>
+  <si>
+    <t>Realme Update Price List (04.08.2022)</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -723,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,16 +1413,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -1456,7 +1459,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>28</v>
@@ -1480,21 +1483,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25">
-        <v>11310</v>
-      </c>
-      <c r="D6" s="26">
-        <v>11990</v>
-      </c>
-      <c r="E6" s="38">
-        <f t="shared" ref="E6:E26" si="0">D6+D6*5%</f>
-        <v>12589.5</v>
-      </c>
-      <c r="F6" s="27"/>
+      <c r="C6" s="29">
+        <v>1189</v>
+      </c>
+      <c r="D6" s="30">
+        <v>12490</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" ref="E6:E27" si="0">D6+D6*5%</f>
+        <v>13114.5</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
@@ -1514,7 +1519,7 @@
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="29">
         <v>12370</v>
@@ -1532,7 +1537,7 @@
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="29">
         <v>13320</v>
@@ -1549,20 +1554,20 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="25">
+      <c r="B10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="29">
         <v>13290</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>13990</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1583,20 +1588,20 @@
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="29">
         <v>13670</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="30">
         <v>14490</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <f t="shared" si="0"/>
         <v>15214.5</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1666,7 +1671,7 @@
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="25">
         <v>25190</v>
@@ -1697,20 +1702,20 @@
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="29">
         <v>20585</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="30">
         <v>21990</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <f t="shared" si="0"/>
         <v>23089.5</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1728,9 +1733,7 @@
         <f t="shared" si="0"/>
         <v>33589.5</v>
       </c>
-      <c r="F20" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
@@ -1746,25 +1749,25 @@
         <f t="shared" si="0"/>
         <v>41989.5</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="25">
-        <v>11390</v>
-      </c>
-      <c r="D22" s="26">
-        <v>11990</v>
-      </c>
-      <c r="E22" s="38">
-        <f t="shared" si="0"/>
-        <v>12589.5</v>
-      </c>
-      <c r="F22" s="27"/>
+      <c r="C22" s="29">
+        <v>11910</v>
+      </c>
+      <c r="D22" s="30">
+        <v>12490</v>
+      </c>
+      <c r="E22" s="51">
+        <f t="shared" si="0"/>
+        <v>13114.5</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
@@ -1799,38 +1802,56 @@
       <c r="F24" s="31"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="29">
+        <v>17130</v>
+      </c>
+      <c r="D25" s="30">
+        <v>17990</v>
+      </c>
+      <c r="E25" s="51">
+        <f t="shared" si="0"/>
+        <v>18889.5</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C26" s="25">
         <v>34490</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D26" s="26">
         <v>36990</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E26" s="38">
         <f t="shared" si="0"/>
         <v>38839.5</v>
       </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C27" s="33">
         <v>39990</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D27" s="34">
         <v>42990</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E27" s="40">
         <f t="shared" si="0"/>
         <v>45139.5</v>
       </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
